--- a/NewSports/img/Furaberl/コート図素材/コート.xlsx
+++ b/NewSports/img/Furaberl/コート図素材/コート.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="2021年度" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="2020年度" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -55,6 +56,20 @@
       <name val="Times New Roman"/>
       <family val="0"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF0000FF"/>
+      <name val="UD デジタル 教科書体 NK-B"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF0000FF"/>
+      <name val="UD デジタル 教科書体 NK-B"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="22"/>
@@ -113,12 +128,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -134,13 +149,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>747000</xdr:colOff>
+      <xdr:colOff>746640</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="画像 1" descr=""/>
+        <xdr:cNvPr id="0" name="画像 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -150,12 +165,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="27000"/>
-          <a:ext cx="8062200" cy="9128880"/>
+          <a:ext cx="8061840" cy="9128520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -167,17 +182,17 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>637200</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>49680</xdr:rowOff>
+      <xdr:rowOff>50040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676800</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="Line 1"/>
+      <xdr:rowOff>158040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="Line 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -188,7 +203,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="3465a4"/>
           </a:solidFill>
@@ -214,25 +229,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>713160</xdr:colOff>
+      <xdr:colOff>712800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+      <xdr:rowOff>120240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CustomShape 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7302240" y="2777040"/>
-          <a:ext cx="726120" cy="269640"/>
+          <a:ext cx="725760" cy="269280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -243,7 +258,982 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="0000ff"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>1.8m</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485280</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>27720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>576720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>136440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Line 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3736440" y="189720"/>
+          <a:ext cx="91440" cy="1896840"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="108000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="triangle" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>592560</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>370800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CustomShape 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5469120" y="4550400"/>
+          <a:ext cx="591120" cy="335520"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>248760</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>41400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>51840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CustomShape 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1874160" y="4592880"/>
+          <a:ext cx="591120" cy="335520"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209160</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68760</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>10080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CustomShape 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1834560" y="6769440"/>
+          <a:ext cx="672480" cy="393120"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>674280</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>139680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533880</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>45000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CustomShape 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5550840" y="6804360"/>
+          <a:ext cx="672480" cy="393120"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>338400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>61200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>198360</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>128880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CustomShape 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3589560" y="7050960"/>
+          <a:ext cx="672480" cy="393120"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>46800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>672480</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CustomShape 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5736240"/>
+          <a:ext cx="672480" cy="393120"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>801360</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>43200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>642600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>27360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CustomShape 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2426760" y="4106880"/>
+          <a:ext cx="3092400" cy="471960"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="8839" h="2480">
+              <a:moveTo>
+                <a:pt x="0" y="2479"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="4202" y="0"/>
+                <a:pt x="8838" y="2377"/>
+                <a:pt x="8838" y="2377"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="ff00ff"/>
+          </a:solidFill>
+          <a:round/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>385560</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>32760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>644760</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>55080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="CustomShape 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6075000" y="4909320"/>
+          <a:ext cx="259200" cy="1810440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1241" h="5033">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="1240" y="2262"/>
+                <a:pt x="509" y="5032"/>
+                <a:pt x="509" y="5032"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="ff00ff"/>
+          </a:solidFill>
+          <a:round/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>108360</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>556560</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>156960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="CustomShape 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4172040" y="6555240"/>
+          <a:ext cx="1261080" cy="429120"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3507" h="1301">
+              <a:moveTo>
+                <a:pt x="3506" y="1188"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="1696" y="1300"/>
+                <a:pt x="0" y="0"/>
+                <a:pt x="0" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="ff00ff"/>
+          </a:solidFill>
+          <a:round/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>569880</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>50040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>322200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>154080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="CustomShape 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2195280" y="6227280"/>
+          <a:ext cx="1378080" cy="429120"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3832" h="1301">
+              <a:moveTo>
+                <a:pt x="3831" y="112"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="1853" y="0"/>
+                <a:pt x="0" y="1300"/>
+                <a:pt x="0" y="1300"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="ff00ff"/>
+          </a:solidFill>
+          <a:round/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>348480</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>108000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>78120</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>14760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="CustomShape 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="348480" y="6285240"/>
+          <a:ext cx="1355040" cy="719280"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3768" h="2179">
+              <a:moveTo>
+                <a:pt x="3767" y="1990"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="1822" y="2178"/>
+                <a:pt x="0" y="0"/>
+                <a:pt x="0" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="ff00ff"/>
+          </a:solidFill>
+          <a:round/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>760320</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>40680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>367200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>60480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="CustomShape 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="760320" y="5079960"/>
+          <a:ext cx="1232280" cy="832680"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3663" h="1979">
+              <a:moveTo>
+                <a:pt x="0" y="1978"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="1824" y="1813"/>
+                <a:pt x="3662" y="0"/>
+                <a:pt x="3662" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="ff00ff"/>
+          </a:solidFill>
+          <a:round/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>767880</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>17280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>416880</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>122040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="CustomShape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5644440" y="6844680"/>
+          <a:ext cx="461880" cy="267120"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>341280</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>10800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>721080</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>117720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="CustomShape 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4404960" y="5862960"/>
+          <a:ext cx="2005560" cy="269280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="0000ff"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="UD デジタル 教科書体 NK-B"/>
+            </a:rPr>
+            <a:t>サービスゾーン</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+            <a:ea typeface="UD デジタル 教科書体 NK-B"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13680</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409320</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>65520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="CustomShape 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4077360" y="933840"/>
+          <a:ext cx="2021400" cy="269280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="1800" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="0000ff"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="UD デジタル 教科書体 NK-B"/>
+            </a:rPr>
+            <a:t>サービスインゾーン</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+            <a:ea typeface="UD デジタル 教科書体 NK-B"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>746640</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>52200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="画像 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="27000"/>
+          <a:ext cx="8061840" cy="9128520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>637200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>158040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7139520" y="2325240"/>
+          <a:ext cx="39600" cy="1408680"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:headEnd len="med" type="triangle" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>799920</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>13680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>712800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>120240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7302240" y="2777040"/>
+          <a:ext cx="725760" cy="269280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -276,19 +1266,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>357120</xdr:colOff>
+      <xdr:colOff>356760</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+      <xdr:rowOff>63360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3568320" y="5816520"/>
-          <a:ext cx="852480" cy="99360"/>
+          <a:ext cx="852120" cy="99000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -318,7 +1308,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -336,19 +1326,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>223560</xdr:colOff>
+      <xdr:colOff>223920</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line 1"/>
+      <xdr:rowOff>99720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -359,7 +1349,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="3465a4"/>
           </a:solidFill>
@@ -385,25 +1375,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>18360</xdr:colOff>
+      <xdr:colOff>18000</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+      <xdr:rowOff>17280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4359600" y="4624560"/>
-          <a:ext cx="535320" cy="269640"/>
+          <a:ext cx="534960" cy="269280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -414,7 +1404,9 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -447,25 +1439,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>247680</xdr:colOff>
+      <xdr:colOff>247320</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+      <xdr:rowOff>39960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4509360" y="5947920"/>
-          <a:ext cx="614880" cy="269640"/>
+          <a:ext cx="614520" cy="269280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -476,7 +1468,9 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -515,7 +1509,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Line 1"/>
+        <xdr:cNvPr id="26" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -526,7 +1520,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="3465a4"/>
           </a:solidFill>
@@ -552,25 +1546,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>204120</xdr:colOff>
+      <xdr:colOff>203760</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1"/>
+      <xdr:rowOff>63000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3805560" y="6135480"/>
-          <a:ext cx="462240" cy="267480"/>
+          <a:ext cx="461880" cy="267120"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="3465a4"/>
           </a:solidFill>
@@ -594,25 +1588,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>371160</xdr:colOff>
+      <xdr:colOff>370800</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1"/>
+      <xdr:rowOff>134640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5469120" y="4838400"/>
-          <a:ext cx="591480" cy="335880"/>
+          <a:ext cx="591120" cy="335520"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="3465a4"/>
           </a:solidFill>
@@ -636,25 +1630,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>243360</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CustomShape 1"/>
+      <xdr:rowOff>69120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2090160" y="4772880"/>
-          <a:ext cx="591480" cy="335880"/>
+          <a:ext cx="591120" cy="335520"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="3465a4"/>
           </a:solidFill>
@@ -678,25 +1672,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="CustomShape 1"/>
+      <xdr:rowOff>10080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1834560" y="6769440"/>
-          <a:ext cx="672840" cy="393480"/>
+          <a:ext cx="672480" cy="393120"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="3465a4"/>
           </a:solidFill>
@@ -720,25 +1714,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>534240</xdr:colOff>
+      <xdr:colOff>533880</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="CustomShape 1"/>
+      <xdr:rowOff>45000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5550840" y="6804360"/>
-          <a:ext cx="672840" cy="393480"/>
+          <a:ext cx="672480" cy="393120"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="3465a4"/>
           </a:solidFill>
@@ -762,25 +1756,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>306720</xdr:colOff>
+      <xdr:colOff>306360</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1"/>
+      <xdr:rowOff>132480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3697560" y="6078960"/>
-          <a:ext cx="672840" cy="393480"/>
+          <a:ext cx="672480" cy="393120"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="3465a4"/>
           </a:solidFill>
@@ -804,25 +1798,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>672840</xdr:colOff>
+      <xdr:colOff>672480</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1"/>
+      <xdr:rowOff>114840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5736240"/>
-          <a:ext cx="672840" cy="393480"/>
+          <a:ext cx="672480" cy="393120"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="3465a4"/>
           </a:solidFill>
@@ -846,19 +1840,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>803160</xdr:colOff>
+      <xdr:colOff>802800</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1"/>
+      <xdr:rowOff>14040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2498760" y="4322880"/>
-          <a:ext cx="3180960" cy="405720"/>
+          <a:ext cx="3180600" cy="405360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -905,19 +1899,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>789120</xdr:colOff>
+      <xdr:colOff>788760</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1"/>
+      <xdr:rowOff>72360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6219000" y="5089320"/>
-          <a:ext cx="259560" cy="1810800"/>
+          <a:ext cx="259200" cy="1810440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -964,19 +1958,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>556920</xdr:colOff>
+      <xdr:colOff>556560</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1"/>
+      <xdr:rowOff>156960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4172040" y="6555240"/>
-          <a:ext cx="1261440" cy="429480"/>
+          <a:ext cx="1261080" cy="429120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1023,19 +2017,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>322560</xdr:colOff>
+      <xdr:colOff>322200</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>154440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CustomShape 1"/>
+      <xdr:rowOff>154080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2195280" y="6227280"/>
-          <a:ext cx="1378440" cy="429480"/>
+          <a:ext cx="1378080" cy="429120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1082,19 +2076,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>78480</xdr:colOff>
+      <xdr:colOff>78120</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CustomShape 1"/>
+      <xdr:rowOff>14760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="348480" y="6285240"/>
-          <a:ext cx="1355400" cy="719640"/>
+          <a:ext cx="1355040" cy="719280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1141,19 +2135,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>452520</xdr:colOff>
+      <xdr:colOff>452160</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>60840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="CustomShape 1"/>
+      <xdr:rowOff>60480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="760320" y="5201640"/>
-          <a:ext cx="1317600" cy="711360"/>
+          <a:ext cx="1317240" cy="711000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1195,24 +2189,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K42" activeCellId="0" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
